--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H2">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I2">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J2">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>769.0656526795532</v>
+        <v>837.4384393348805</v>
       </c>
       <c r="R2">
-        <v>769.0656526795532</v>
+        <v>3349.753757339522</v>
       </c>
       <c r="S2">
-        <v>0.007221207279885461</v>
+        <v>0.004978363062984795</v>
       </c>
       <c r="T2">
-        <v>0.007221207279885461</v>
+        <v>0.002654343366197152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H3">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I3">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J3">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>520.4515671814436</v>
+        <v>604.322900646088</v>
       </c>
       <c r="R3">
-        <v>520.4515671814436</v>
+        <v>3625.937403876528</v>
       </c>
       <c r="S3">
-        <v>0.00488682420371256</v>
+        <v>0.003592549213625528</v>
       </c>
       <c r="T3">
-        <v>0.00488682420371256</v>
+        <v>0.002873191163122941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H4">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I4">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J4">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>392.643410159613</v>
+        <v>430.1341851698971</v>
       </c>
       <c r="R4">
-        <v>392.643410159613</v>
+        <v>2580.805111019382</v>
       </c>
       <c r="S4">
-        <v>0.003686758655733466</v>
+        <v>0.002557040659941064</v>
       </c>
       <c r="T4">
-        <v>0.003686758655733466</v>
+        <v>0.002045028805736083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H5">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I5">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J5">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>369.1826871535712</v>
+        <v>405.2199767104017</v>
       </c>
       <c r="R5">
-        <v>369.1826871535712</v>
+        <v>2431.31986026241</v>
       </c>
       <c r="S5">
-        <v>0.003466472204021138</v>
+        <v>0.002408931892403757</v>
       </c>
       <c r="T5">
-        <v>0.003466472204021138</v>
+        <v>0.001926576760471053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H6">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I6">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J6">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>542.4314791128144</v>
+        <v>619.430198704564</v>
       </c>
       <c r="R6">
-        <v>542.4314791128144</v>
+        <v>3716.581192227384</v>
       </c>
       <c r="S6">
-        <v>0.005093206454040662</v>
+        <v>0.003682358340008062</v>
       </c>
       <c r="T6">
-        <v>0.005093206454040662</v>
+        <v>0.002945017260121535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.67312181579038</v>
+        <v>5.088421</v>
       </c>
       <c r="H7">
-        <v>4.67312181579038</v>
+        <v>10.176842</v>
       </c>
       <c r="I7">
-        <v>0.03047834493779559</v>
+        <v>0.02145138369527669</v>
       </c>
       <c r="J7">
-        <v>0.03047834493779559</v>
+        <v>0.01470063282533843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>652.198810850634</v>
+        <v>711.9121511553545</v>
       </c>
       <c r="R7">
-        <v>652.198810850634</v>
+        <v>2847.648604621418</v>
       </c>
       <c r="S7">
-        <v>0.006123876140402301</v>
+        <v>0.004232140526313486</v>
       </c>
       <c r="T7">
-        <v>0.006123876140402301</v>
+        <v>0.002256475469689671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J8">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>19576.71369177046</v>
+        <v>20884.82282071408</v>
       </c>
       <c r="R8">
-        <v>19576.71369177046</v>
+        <v>125308.9369242845</v>
       </c>
       <c r="S8">
-        <v>0.1838172162996725</v>
+        <v>0.1241550729271549</v>
       </c>
       <c r="T8">
-        <v>0.1838172162996725</v>
+        <v>0.09929474509026696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J9">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>13248.19446252101</v>
+        <v>15071.16954951062</v>
       </c>
       <c r="R9">
-        <v>13248.19446252101</v>
+        <v>135640.5259455956</v>
       </c>
       <c r="S9">
-        <v>0.1243950473730972</v>
+        <v>0.08959435139000282</v>
       </c>
       <c r="T9">
-        <v>0.1243950473730972</v>
+        <v>0.107481491570036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J10">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>9994.813312587172</v>
+        <v>10727.08849326324</v>
       </c>
       <c r="R10">
-        <v>9994.813312587172</v>
+        <v>96543.79643936915</v>
       </c>
       <c r="S10">
-        <v>0.09384714868292737</v>
+        <v>0.06376987085838275</v>
       </c>
       <c r="T10">
-        <v>0.09384714868292737</v>
+        <v>0.07650126074635934</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J11">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>9397.616108823111</v>
+        <v>10105.75466745014</v>
       </c>
       <c r="R11">
-        <v>9397.616108823111</v>
+        <v>90951.79200705122</v>
       </c>
       <c r="S11">
-        <v>0.08823971480478854</v>
+        <v>0.06007619592907365</v>
       </c>
       <c r="T11">
-        <v>0.08823971480478854</v>
+        <v>0.07207015895681854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H12">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I12">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J12">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>13807.69733636742</v>
+        <v>15447.92947409872</v>
       </c>
       <c r="R12">
-        <v>13807.69733636742</v>
+        <v>139031.3652668885</v>
       </c>
       <c r="S12">
-        <v>0.1296485471382467</v>
+        <v>0.09183409535694093</v>
       </c>
       <c r="T12">
-        <v>0.1296485471382467</v>
+        <v>0.1101683911185756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>118.955212101526</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H13">
-        <v>118.955212101526</v>
+        <v>380.699402</v>
       </c>
       <c r="I13">
-        <v>0.775832115980427</v>
+        <v>0.5349746640371925</v>
       </c>
       <c r="J13">
-        <v>0.775832115980427</v>
+        <v>0.5499271901467973</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>16601.84581855982</v>
+        <v>17754.33087666928</v>
       </c>
       <c r="R13">
-        <v>16601.84581855982</v>
+        <v>106525.9852600157</v>
       </c>
       <c r="S13">
-        <v>0.1558844416816946</v>
+        <v>0.1055450775756375</v>
       </c>
       <c r="T13">
-        <v>0.1558844416816946</v>
+        <v>0.08441114266474087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H14">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I14">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J14">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>1437.580086986397</v>
+        <v>12977.37069557341</v>
       </c>
       <c r="R14">
-        <v>1437.580086986397</v>
+        <v>77864.2241734405</v>
       </c>
       <c r="S14">
-        <v>0.01349828035278286</v>
+        <v>0.07714723840096964</v>
       </c>
       <c r="T14">
-        <v>0.01349828035278286</v>
+        <v>0.06169957610944216</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H15">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I15">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J15">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>972.8568771912832</v>
+        <v>9364.894102230655</v>
       </c>
       <c r="R15">
-        <v>972.8568771912832</v>
+        <v>84284.0469200759</v>
       </c>
       <c r="S15">
-        <v>0.009134722295012597</v>
+        <v>0.05567196428711554</v>
       </c>
       <c r="T15">
-        <v>0.009134722295012597</v>
+        <v>0.06678664075780821</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H16">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I16">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J16">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>733.9507957028528</v>
+        <v>6665.577441395664</v>
       </c>
       <c r="R16">
-        <v>733.9507957028528</v>
+        <v>59990.19697256098</v>
       </c>
       <c r="S16">
-        <v>0.006891493347207803</v>
+        <v>0.03962519866423179</v>
       </c>
       <c r="T16">
-        <v>0.006891493347207803</v>
+        <v>0.04753620501867777</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H17">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I17">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J17">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>690.0967136719105</v>
+        <v>6279.494233867653</v>
       </c>
       <c r="R17">
-        <v>690.0967136719105</v>
+        <v>56515.44810480888</v>
       </c>
       <c r="S17">
-        <v>0.006479721718464313</v>
+        <v>0.03733003010100856</v>
       </c>
       <c r="T17">
-        <v>0.006479721718464313</v>
+        <v>0.04478281558337666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H18">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I18">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J18">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>1013.94294519622</v>
+        <v>9599.004453397567</v>
       </c>
       <c r="R18">
-        <v>1013.94294519622</v>
+        <v>86391.04008057811</v>
       </c>
       <c r="S18">
-        <v>0.009520503420909198</v>
+        <v>0.05706369204902412</v>
       </c>
       <c r="T18">
-        <v>0.009520503420909198</v>
+        <v>0.0684562211876974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.735257962743979</v>
+        <v>78.852752</v>
       </c>
       <c r="H19">
-        <v>8.735257962743979</v>
+        <v>236.558256</v>
       </c>
       <c r="I19">
-        <v>0.05697180938222712</v>
+        <v>0.332421519088239</v>
       </c>
       <c r="J19">
-        <v>0.05697180938222712</v>
+        <v>0.341712690759905</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>1219.126117475622</v>
+        <v>11032.1516833689</v>
       </c>
       <c r="R19">
-        <v>1219.126117475622</v>
+        <v>66192.91010021343</v>
       </c>
       <c r="S19">
-        <v>0.01144708824785033</v>
+        <v>0.06558339558588935</v>
       </c>
       <c r="T19">
-        <v>0.01144708824785033</v>
+        <v>0.05245123210290278</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H20">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I20">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J20">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>1097.489555064697</v>
+        <v>1577.468584438016</v>
       </c>
       <c r="R20">
-        <v>1097.489555064697</v>
+        <v>9464.811506628097</v>
       </c>
       <c r="S20">
-        <v>0.01030497141176274</v>
+        <v>0.009377658064063064</v>
       </c>
       <c r="T20">
-        <v>0.01030497141176274</v>
+        <v>0.007499912368149147</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H21">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I21">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J21">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>742.7066296727271</v>
+        <v>1138.352798066925</v>
       </c>
       <c r="R21">
-        <v>742.7066296727271</v>
+        <v>10245.17518260233</v>
       </c>
       <c r="S21">
-        <v>0.006973706994097934</v>
+        <v>0.006767224020720594</v>
       </c>
       <c r="T21">
-        <v>0.006973706994097934</v>
+        <v>0.008118272192958645</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H22">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I22">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J22">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>560.3189272772159</v>
+        <v>810.236469127523</v>
       </c>
       <c r="R22">
-        <v>560.3189272772159</v>
+        <v>7292.128222147707</v>
       </c>
       <c r="S22">
-        <v>0.005261162168163773</v>
+        <v>0.004816654121336168</v>
       </c>
       <c r="T22">
-        <v>0.005261162168163773</v>
+        <v>0.005778279113653351</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H23">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I23">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J23">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>526.8394728721377</v>
+        <v>763.3059972205872</v>
       </c>
       <c r="R23">
-        <v>526.8394728721377</v>
+        <v>6869.753974985285</v>
       </c>
       <c r="S23">
-        <v>0.004946803986863898</v>
+        <v>0.004537664147988996</v>
       </c>
       <c r="T23">
-        <v>0.004946803986863898</v>
+        <v>0.005443589950740515</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H24">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I24">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J24">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>774.0729033866471</v>
+        <v>1166.810159185809</v>
       </c>
       <c r="R24">
-        <v>774.0729033866471</v>
+        <v>10501.29143267228</v>
       </c>
       <c r="S24">
-        <v>0.007268223285778193</v>
+        <v>0.006936395948840816</v>
       </c>
       <c r="T24">
-        <v>0.007268223285778193</v>
+        <v>0.008321218593976614</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.66874455321943</v>
+        <v>9.584972333333333</v>
       </c>
       <c r="H25">
-        <v>6.66874455321943</v>
+        <v>28.754917</v>
       </c>
       <c r="I25">
-        <v>0.04349390082413048</v>
+        <v>0.04040760763131526</v>
       </c>
       <c r="J25">
-        <v>0.04349390082413048</v>
+        <v>0.04153699907496669</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>930.7155770645655</v>
+        <v>1341.016844437182</v>
       </c>
       <c r="R25">
-        <v>930.7155770645655</v>
+        <v>8046.101066623093</v>
       </c>
       <c r="S25">
-        <v>0.008739032977463935</v>
+        <v>0.007972011328365622</v>
       </c>
       <c r="T25">
-        <v>0.008739032977463935</v>
+        <v>0.006375726855488421</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H26">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I26">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J26">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>406.2766164188232</v>
+        <v>414.8342909086525</v>
       </c>
       <c r="R26">
-        <v>406.2766164188232</v>
+        <v>2489.005745451915</v>
       </c>
       <c r="S26">
-        <v>0.003814768804079292</v>
+        <v>0.002466086597074964</v>
       </c>
       <c r="T26">
-        <v>0.003814768804079292</v>
+        <v>0.001972287029872343</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H27">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I27">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J27">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>274.9405086388048</v>
+        <v>299.35795897844</v>
       </c>
       <c r="R27">
-        <v>274.9405086388048</v>
+        <v>2694.22163080596</v>
       </c>
       <c r="S27">
-        <v>0.002581577262747953</v>
+        <v>0.001779608548626494</v>
       </c>
       <c r="T27">
-        <v>0.002581577262747953</v>
+        <v>0.002134900004851259</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H28">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I28">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J28">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>207.4229106227733</v>
+        <v>213.071673473985</v>
       </c>
       <c r="R28">
-        <v>207.4229106227733</v>
+        <v>1917.645061265865</v>
       </c>
       <c r="S28">
-        <v>0.001947615040387597</v>
+        <v>0.001266658060064359</v>
       </c>
       <c r="T28">
-        <v>0.001947615040387597</v>
+        <v>0.001519541081471757</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H29">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I29">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J29">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>195.0292441933542</v>
+        <v>200.7301477995083</v>
       </c>
       <c r="R29">
-        <v>195.0292441933542</v>
+        <v>1806.571330195575</v>
       </c>
       <c r="S29">
-        <v>0.001831243656575604</v>
+        <v>0.001193290762036469</v>
       </c>
       <c r="T29">
-        <v>0.001831243656575604</v>
+        <v>0.001431526307078504</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H30">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I30">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J30">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>286.5519025653801</v>
+        <v>306.8415243168199</v>
       </c>
       <c r="R30">
-        <v>286.5519025653801</v>
+        <v>2761.573718851379</v>
       </c>
       <c r="S30">
-        <v>0.002690603432438489</v>
+        <v>0.001824096481721151</v>
       </c>
       <c r="T30">
-        <v>0.002690603432438489</v>
+        <v>0.002188269769035023</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.46868406203987</v>
+        <v>2.520605</v>
       </c>
       <c r="H31">
-        <v>2.46868406203987</v>
+        <v>7.561814999999999</v>
       </c>
       <c r="I31">
-        <v>0.01610088659171058</v>
+        <v>0.01062617755080267</v>
       </c>
       <c r="J31">
-        <v>0.01610088659171058</v>
+        <v>0.01092317890050141</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>344.539019759321</v>
+        <v>352.6534710400225</v>
       </c>
       <c r="R31">
-        <v>344.539019759321</v>
+        <v>2115.920826240135</v>
       </c>
       <c r="S31">
-        <v>0.00323507839548164</v>
+        <v>0.002096437101279238</v>
       </c>
       <c r="T31">
-        <v>0.00323507839548164</v>
+        <v>0.001676654708192521</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H32">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I32">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J32">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>1946.057309379548</v>
+        <v>2346.965933240091</v>
       </c>
       <c r="R32">
-        <v>1946.057309379548</v>
+        <v>9387.863732960363</v>
       </c>
       <c r="S32">
-        <v>0.01827267042885521</v>
+        <v>0.01395212825602553</v>
       </c>
       <c r="T32">
-        <v>0.01827267042885521</v>
+        <v>0.007438938987007003</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H33">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I33">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J33">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>1316.959836865195</v>
+        <v>1693.647191093452</v>
       </c>
       <c r="R33">
-        <v>1316.959836865195</v>
+        <v>10161.88314656071</v>
       </c>
       <c r="S33">
-        <v>0.01236570626727789</v>
+        <v>0.01006831096093967</v>
       </c>
       <c r="T33">
-        <v>0.01236570626727789</v>
+        <v>0.008052271621173418</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H34">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I34">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J34">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>993.5518192218724</v>
+        <v>1205.474016833426</v>
       </c>
       <c r="R34">
-        <v>993.5518192218724</v>
+        <v>7232.844101000554</v>
       </c>
       <c r="S34">
-        <v>0.009329039211295905</v>
+        <v>0.007166242958178328</v>
       </c>
       <c r="T34">
-        <v>0.009329039211295905</v>
+        <v>0.005731302402800205</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H35">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I35">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J35">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>934.186391406752</v>
+        <v>1135.650617570169</v>
       </c>
       <c r="R35">
-        <v>934.186391406752</v>
+        <v>6813.903705421015</v>
       </c>
       <c r="S35">
-        <v>0.008771622483584252</v>
+        <v>0.006751160230306038</v>
       </c>
       <c r="T35">
-        <v>0.008771622483584252</v>
+        <v>0.00539933422233259</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H36">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I36">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J36">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>1372.578194185576</v>
+        <v>1735.986200411806</v>
       </c>
       <c r="R36">
-        <v>1372.578194185576</v>
+        <v>10415.91720247084</v>
       </c>
       <c r="S36">
-        <v>0.01288793955825618</v>
+        <v>0.0103200058321248</v>
       </c>
       <c r="T36">
-        <v>0.01288793955825618</v>
+        <v>0.008253568092478443</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.8249499708566</v>
+        <v>14.2605715</v>
       </c>
       <c r="H37">
-        <v>11.8249499708566</v>
+        <v>28.521143</v>
       </c>
       <c r="I37">
-        <v>0.07712294228370911</v>
+        <v>0.06011864799717386</v>
       </c>
       <c r="J37">
-        <v>0.07712294228370911</v>
+        <v>0.04119930829249108</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>1650.335388925983</v>
+        <v>1995.171809343162</v>
       </c>
       <c r="R37">
-        <v>1650.335388925983</v>
+        <v>7980.687237372646</v>
       </c>
       <c r="S37">
-        <v>0.01549596433443966</v>
+        <v>0.01186079975959951</v>
       </c>
       <c r="T37">
-        <v>0.01549596433443966</v>
+        <v>0.00632389296669942</v>
       </c>
     </row>
   </sheetData>
